--- a/formats/excel/Formats RUM IVG 17.xlsx
+++ b/formats/excel/Formats RUM IVG 17.xlsx
@@ -20,87 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Libellé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Début</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">position</t>
   </si>
   <si>
     <t xml:space="preserve">nom</t>
   </si>
   <si>
+    <t xml:space="preserve">longueur</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">libelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOFINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numéro FINESS d’inscription ePMSI</t>
   </si>
   <si>
-    <t xml:space="preserve">NOFINESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">TYPEPREST</t>
   </si>
   <si>
     <t xml:space="preserve">Type de prestation</t>
   </si>
   <si>
-    <t xml:space="preserve">TYPEPREST</t>
+    <t xml:space="preserve">NAS</t>
   </si>
   <si>
     <t xml:space="preserve">Numéro administratif local de séjour</t>
   </si>
   <si>
-    <t xml:space="preserve">NAS</t>
+    <t xml:space="preserve">D8EEUE</t>
   </si>
   <si>
     <t xml:space="preserve">Date d’entrée du séjour</t>
   </si>
   <si>
-    <t xml:space="preserve">D8EEUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmy</t>
+    <t xml:space="preserve">D8SOUE</t>
   </si>
   <si>
     <t xml:space="preserve">Date sortie du séjour</t>
   </si>
   <si>
-    <t xml:space="preserve">D8SOUE</t>
+    <t xml:space="preserve">NBIVGANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre IVG antérieures</t>
   </si>
   <si>
-    <t xml:space="preserve">NBIVGANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
+    <t xml:space="preserve">ANIVGPREC</t>
   </si>
   <si>
     <t xml:space="preserve">Année de la dernière IVG</t>
   </si>
   <si>
-    <t xml:space="preserve">ANIVGPREC</t>
+    <t xml:space="preserve">NBNAIVIVANT</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de naissances vivantes antérieures</t>
   </si>
   <si>
-    <t xml:space="preserve">NBNAIVIVANT</t>
+    <t xml:space="preserve">Fil</t>
   </si>
   <si>
     <t xml:space="preserve">Filler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fil</t>
   </si>
 </sst>
 </file>
@@ -212,14 +209,15 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7:E9"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,185 +241,205 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">C2+A2-A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>11</v>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
+      <c r="F3" s="0" t="n">
+        <f aca="false">C3+A3-A4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>31</v>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>8</v>
+      <c r="F4" s="0" t="n">
+        <f aca="false">C4+A4-A5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>39</v>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="0" t="n">
+        <f aca="false">C5+A5-A6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>47</v>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">C6+A6-A7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>48</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="0" t="n">
+        <f aca="false">C7+A7-A8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>50</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">C8+A8-A9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>54</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">C9+A9-A10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>56</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>85</v>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">C10+A10-A11</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
